--- a/data/pca/factorExposure/factorExposure_2012-08-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-10.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002747146123211873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.0019045625678059</v>
+      </c>
+      <c r="C2">
+        <v>0.02865377531759003</v>
+      </c>
+      <c r="D2">
+        <v>-0.004600851580613577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0003558220024624378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006688104695847791</v>
+      </c>
+      <c r="C4">
+        <v>0.08444634001196986</v>
+      </c>
+      <c r="D4">
+        <v>-0.06516943661255584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005405968899183838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01484076047645934</v>
+      </c>
+      <c r="C6">
+        <v>0.1184392996438034</v>
+      </c>
+      <c r="D6">
+        <v>-0.01849920514665459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0003642791319783469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005061112634466249</v>
+      </c>
+      <c r="C7">
+        <v>0.05981290599374967</v>
+      </c>
+      <c r="D7">
+        <v>-0.0313833478855876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005976278255533211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004921457765977145</v>
+      </c>
+      <c r="C8">
+        <v>0.03606318271267697</v>
+      </c>
+      <c r="D8">
+        <v>-0.03673240523255326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0003645555681770652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.006009830821370165</v>
+      </c>
+      <c r="C9">
+        <v>0.07357857126029309</v>
+      </c>
+      <c r="D9">
+        <v>-0.07067298357335881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1.662692122270225e-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.001553237959436429</v>
+      </c>
+      <c r="C10">
+        <v>0.04997031669953428</v>
+      </c>
+      <c r="D10">
+        <v>0.1854219672794697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0002593394190764063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006474280174006542</v>
+      </c>
+      <c r="C11">
+        <v>0.08143946995266205</v>
+      </c>
+      <c r="D11">
+        <v>-0.06755150955569132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0005094198308008419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004761530981298709</v>
+      </c>
+      <c r="C12">
+        <v>0.06622322514430072</v>
+      </c>
+      <c r="D12">
+        <v>-0.05065042307449859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002487320139844804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009520036946171673</v>
+      </c>
+      <c r="C13">
+        <v>0.07105392449360919</v>
+      </c>
+      <c r="D13">
+        <v>-0.05686128233411757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001810189685646996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.000884303906779323</v>
+      </c>
+      <c r="C14">
+        <v>0.04383545123499948</v>
+      </c>
+      <c r="D14">
+        <v>-0.01267612217673771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001761774220413892</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006326447650996762</v>
+      </c>
+      <c r="C15">
+        <v>0.04087489716797118</v>
+      </c>
+      <c r="D15">
+        <v>-0.0255487740516756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0001254610440512063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005504458444158343</v>
+      </c>
+      <c r="C16">
+        <v>0.06541090378924669</v>
+      </c>
+      <c r="D16">
+        <v>-0.05692806532564781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002719308307641471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009055937104765851</v>
+      </c>
+      <c r="C20">
+        <v>0.06533154776865367</v>
+      </c>
+      <c r="D20">
+        <v>-0.04924926319567053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005446131830520254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009529548649779429</v>
+      </c>
+      <c r="C21">
+        <v>0.02210411317199277</v>
+      </c>
+      <c r="D21">
+        <v>-0.040801609021251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02014884947971506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007306652014668995</v>
+      </c>
+      <c r="C22">
+        <v>0.08648001120691659</v>
+      </c>
+      <c r="D22">
+        <v>-0.1178642399685572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01981029024004984</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007011888639776639</v>
+      </c>
+      <c r="C23">
+        <v>0.08689862565985626</v>
+      </c>
+      <c r="D23">
+        <v>-0.1189529455139363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0008512839871657343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.006309060695394278</v>
+      </c>
+      <c r="C24">
+        <v>0.07819550401559443</v>
+      </c>
+      <c r="D24">
+        <v>-0.06604477891788126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002482145808964512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003829906912824122</v>
+      </c>
+      <c r="C25">
+        <v>0.07910537316695014</v>
+      </c>
+      <c r="D25">
+        <v>-0.06366019630441595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001247871545635345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003980363052318837</v>
+      </c>
+      <c r="C26">
+        <v>0.04086383183805431</v>
+      </c>
+      <c r="D26">
+        <v>-0.01944657525400231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00754810676725351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002604267947575574</v>
+      </c>
+      <c r="C28">
+        <v>0.1003000594958879</v>
+      </c>
+      <c r="D28">
+        <v>0.3266885440817641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.000612819024790536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003508599221727536</v>
+      </c>
+      <c r="C29">
+        <v>0.04777834557800816</v>
+      </c>
+      <c r="D29">
+        <v>-0.009736616314186292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002531997284968647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009722914460982758</v>
+      </c>
+      <c r="C30">
+        <v>0.1425055540408313</v>
+      </c>
+      <c r="D30">
+        <v>-0.1072680188340291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002025631299041951</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006375833235008702</v>
+      </c>
+      <c r="C31">
+        <v>0.04441585696855944</v>
+      </c>
+      <c r="D31">
+        <v>-0.02849297293986604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005647621869463888</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004667202507418131</v>
+      </c>
+      <c r="C32">
+        <v>0.03826241583594766</v>
+      </c>
+      <c r="D32">
+        <v>-0.01687731919769793</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0003802296180584895</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009070402687721484</v>
+      </c>
+      <c r="C33">
+        <v>0.09150919414575595</v>
+      </c>
+      <c r="D33">
+        <v>-0.06178484596123624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0007337659080237358</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004953594852032664</v>
+      </c>
+      <c r="C34">
+        <v>0.05940075949095602</v>
+      </c>
+      <c r="D34">
+        <v>-0.05672649703089453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001821520129479155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005143479031193161</v>
+      </c>
+      <c r="C35">
+        <v>0.0410888858945976</v>
+      </c>
+      <c r="D35">
+        <v>-0.01366499149211008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004719568367069803</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001435890659815407</v>
+      </c>
+      <c r="C36">
+        <v>0.0258061771678067</v>
+      </c>
+      <c r="D36">
+        <v>-0.01902911609248109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002699876671042929</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008791779668761693</v>
+      </c>
+      <c r="C38">
+        <v>0.04059485771310876</v>
+      </c>
+      <c r="D38">
+        <v>-0.01207828742843662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.0107871590741879</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001166265033258534</v>
+      </c>
+      <c r="C39">
+        <v>0.1145222431309539</v>
+      </c>
+      <c r="D39">
+        <v>-0.08244311991322466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.004678399885415784</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002912822668183926</v>
+      </c>
+      <c r="C40">
+        <v>0.09192484498665311</v>
+      </c>
+      <c r="D40">
+        <v>-0.01505393121404503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002475706211328041</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00770467140298579</v>
+      </c>
+      <c r="C41">
+        <v>0.04232950750010542</v>
+      </c>
+      <c r="D41">
+        <v>-0.04398117367617943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001954567237260054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004146399063248008</v>
+      </c>
+      <c r="C43">
+        <v>0.05467234859867424</v>
+      </c>
+      <c r="D43">
+        <v>-0.02666752080464109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007517203787531165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002346762520843531</v>
+      </c>
+      <c r="C44">
+        <v>0.1045471275368229</v>
+      </c>
+      <c r="D44">
+        <v>-0.06253770148591883</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00175747521400171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001193848720511191</v>
+      </c>
+      <c r="C46">
+        <v>0.03399876464957464</v>
+      </c>
+      <c r="D46">
+        <v>-0.03410303668498779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003038818752801754</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.003248979499962384</v>
+      </c>
+      <c r="C47">
+        <v>0.03504095449131035</v>
+      </c>
+      <c r="D47">
+        <v>-0.01939110286754601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004759227344032206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007844153760034086</v>
+      </c>
+      <c r="C48">
+        <v>0.03408963842666932</v>
+      </c>
+      <c r="D48">
+        <v>-0.02628864231352578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005322757926887364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01864934115930507</v>
+      </c>
+      <c r="C49">
+        <v>0.187044045569175</v>
+      </c>
+      <c r="D49">
+        <v>-0.0112499771211264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0001205242095245108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004248990684454977</v>
+      </c>
+      <c r="C50">
+        <v>0.04299567256198258</v>
+      </c>
+      <c r="D50">
+        <v>-0.03762326450276655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001543465756358161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003871263714371132</v>
+      </c>
+      <c r="C51">
+        <v>0.02726396154816908</v>
+      </c>
+      <c r="D51">
+        <v>-0.02288928586532055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008846617565907726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02212776762604916</v>
+      </c>
+      <c r="C53">
+        <v>0.172329719831352</v>
+      </c>
+      <c r="D53">
+        <v>-0.0193442618721481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003391517488441969</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009590013319993762</v>
+      </c>
+      <c r="C54">
+        <v>0.05754247684709965</v>
+      </c>
+      <c r="D54">
+        <v>-0.03964356118907768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002232460012486517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01037356629351941</v>
+      </c>
+      <c r="C55">
+        <v>0.1090808521829692</v>
+      </c>
+      <c r="D55">
+        <v>-0.03242113577653023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009102992324641035</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02174829072960557</v>
+      </c>
+      <c r="C56">
+        <v>0.1753158749756256</v>
+      </c>
+      <c r="D56">
+        <v>-0.01337454053770105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001324400289128077</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01697185281627759</v>
+      </c>
+      <c r="C58">
+        <v>0.1066515028085956</v>
+      </c>
+      <c r="D58">
+        <v>-0.0587740986874563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.003165043109308876</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009525920849304072</v>
+      </c>
+      <c r="C59">
+        <v>0.1660254100551568</v>
+      </c>
+      <c r="D59">
+        <v>0.3492066463839392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008405887025177276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02657156715315473</v>
+      </c>
+      <c r="C60">
+        <v>0.2250008701076041</v>
+      </c>
+      <c r="D60">
+        <v>-0.0184968308462405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01003261113391832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001752866142174639</v>
+      </c>
+      <c r="C61">
+        <v>0.09599616227290071</v>
+      </c>
+      <c r="D61">
+        <v>-0.05914167956166486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1502094032313728</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1538649916270971</v>
+      </c>
+      <c r="C62">
+        <v>0.1027087275768543</v>
+      </c>
+      <c r="D62">
+        <v>-0.01648855728909157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0007778390511806592</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006537417624409359</v>
+      </c>
+      <c r="C63">
+        <v>0.0543632002602461</v>
+      </c>
+      <c r="D63">
+        <v>-0.03214542830212971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01040222914154238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01738151522705762</v>
+      </c>
+      <c r="C64">
+        <v>0.1081108922577046</v>
+      </c>
+      <c r="D64">
+        <v>-0.05224606206737262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008188241722749803</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01773415421720032</v>
+      </c>
+      <c r="C65">
+        <v>0.119393108747095</v>
+      </c>
+      <c r="D65">
+        <v>-0.0194171130546163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001439557888104662</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01321693940468438</v>
+      </c>
+      <c r="C66">
+        <v>0.1628396205274388</v>
+      </c>
+      <c r="D66">
+        <v>-0.1148756709928659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00600620750753814</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01533745507709456</v>
+      </c>
+      <c r="C67">
+        <v>0.07332058501846879</v>
+      </c>
+      <c r="D67">
+        <v>-0.02483183520449359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00515512536436347</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.000369892865453197</v>
+      </c>
+      <c r="C68">
+        <v>0.08136214932866086</v>
+      </c>
+      <c r="D68">
+        <v>0.2615724947158125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0001889921849630098</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006430764303043436</v>
+      </c>
+      <c r="C69">
+        <v>0.05185288980130814</v>
+      </c>
+      <c r="D69">
+        <v>-0.03528588624609272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001538124281038112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002677466099761652</v>
+      </c>
+      <c r="C70">
+        <v>0.008903849687769343</v>
+      </c>
+      <c r="D70">
+        <v>0.001762446035023867</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-9.014919077537081e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004401628089626106</v>
+      </c>
+      <c r="C71">
+        <v>0.08615319150318997</v>
+      </c>
+      <c r="D71">
+        <v>0.3030820113005932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004983577261338187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01831357982637528</v>
+      </c>
+      <c r="C72">
+        <v>0.1570007133889721</v>
+      </c>
+      <c r="D72">
+        <v>-0.008577285250131718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009637558336188769</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03147861662885997</v>
+      </c>
+      <c r="C73">
+        <v>0.2815611731929797</v>
+      </c>
+      <c r="D73">
+        <v>-0.05594560992520999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005600529961244861</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001944347626467373</v>
+      </c>
+      <c r="C74">
+        <v>0.103652329176605</v>
+      </c>
+      <c r="D74">
+        <v>-0.03004208804253325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-7.561740026453895e-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01229507364458543</v>
+      </c>
+      <c r="C75">
+        <v>0.1203205336188969</v>
+      </c>
+      <c r="D75">
+        <v>-0.02564938123872546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01102386004730284</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02243546999319518</v>
+      </c>
+      <c r="C76">
+        <v>0.1468290995742101</v>
+      </c>
+      <c r="D76">
+        <v>-0.05539665019555307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.005887122438366262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02108249296826549</v>
+      </c>
+      <c r="C77">
+        <v>0.1096273089552255</v>
+      </c>
+      <c r="D77">
+        <v>-0.04737020440730338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.004105418644245464</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01441610626868292</v>
+      </c>
+      <c r="C78">
+        <v>0.1011147762787986</v>
+      </c>
+      <c r="D78">
+        <v>-0.07992091551311944</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02760645892655777</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03945113718427799</v>
+      </c>
+      <c r="C79">
+        <v>0.1570938152895398</v>
+      </c>
+      <c r="D79">
+        <v>-0.02828732510725807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.0066834827749989</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009894871918312115</v>
+      </c>
+      <c r="C80">
+        <v>0.03942497410886541</v>
+      </c>
+      <c r="D80">
+        <v>-0.03066923105496239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005181303852609342</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01672141913224628</v>
+      </c>
+      <c r="C81">
+        <v>0.1310563276387139</v>
+      </c>
+      <c r="D81">
+        <v>-0.03541369834945201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008061997368102895</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02017239631483873</v>
+      </c>
+      <c r="C82">
+        <v>0.1365880935407794</v>
+      </c>
+      <c r="D82">
+        <v>-0.03519441488002197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003617473560715595</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01234933223947904</v>
+      </c>
+      <c r="C83">
+        <v>0.0642080918244869</v>
+      </c>
+      <c r="D83">
+        <v>-0.04482213573196794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004240902134726208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006706854045302367</v>
+      </c>
+      <c r="C84">
+        <v>0.03510369900671564</v>
+      </c>
+      <c r="D84">
+        <v>-0.01499904918615718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01899641373541943</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02922788427730614</v>
+      </c>
+      <c r="C85">
+        <v>0.1241176791496219</v>
+      </c>
+      <c r="D85">
+        <v>-0.03823485122344213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002600231529810395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003877285086602851</v>
+      </c>
+      <c r="C86">
+        <v>0.05102843624142807</v>
+      </c>
+      <c r="D86">
+        <v>-0.02384086905871709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0015228685610246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01210874604388495</v>
+      </c>
+      <c r="C87">
+        <v>0.1284879240403047</v>
+      </c>
+      <c r="D87">
+        <v>-0.07096934622916203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008608404597736841</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002847949607543168</v>
+      </c>
+      <c r="C88">
+        <v>0.06391619267044052</v>
+      </c>
+      <c r="D88">
+        <v>-0.02834562262744558</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.012023948427683</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00305946185216841</v>
+      </c>
+      <c r="C89">
+        <v>0.1311837865394807</v>
+      </c>
+      <c r="D89">
+        <v>0.3221848764162711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002754857195604485</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005317431529524414</v>
+      </c>
+      <c r="C90">
+        <v>0.1139726001229968</v>
+      </c>
+      <c r="D90">
+        <v>0.3156368092464873</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002571752688507311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01160527509752535</v>
+      </c>
+      <c r="C91">
+        <v>0.09883688998111438</v>
+      </c>
+      <c r="D91">
+        <v>-0.02631772393194969</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006300654274803332</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006818574684492042</v>
+      </c>
+      <c r="C92">
+        <v>0.1255604282848255</v>
+      </c>
+      <c r="D92">
+        <v>0.32625295653022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002042549212944297</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003146189466248542</v>
+      </c>
+      <c r="C93">
+        <v>0.1014401153630179</v>
+      </c>
+      <c r="D93">
+        <v>0.3009345965498842</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01077806822770063</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02264973758394978</v>
+      </c>
+      <c r="C94">
+        <v>0.1383137652108308</v>
+      </c>
+      <c r="D94">
+        <v>-0.05199386617339132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.00703084849917344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01660510592236296</v>
+      </c>
+      <c r="C95">
+        <v>0.1216396499449485</v>
+      </c>
+      <c r="D95">
+        <v>-0.06796296944418047</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0178281540280091</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03792672718571048</v>
+      </c>
+      <c r="C97">
+        <v>0.2219132859275087</v>
+      </c>
+      <c r="D97">
+        <v>0.003970082425764274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01168443121488964</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03999939096133491</v>
+      </c>
+      <c r="C98">
+        <v>0.2621896280544192</v>
+      </c>
+      <c r="D98">
+        <v>-0.03336825435190807</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864378038324791</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9802310533096737</v>
+      </c>
+      <c r="C99">
+        <v>-0.1236525943132194</v>
+      </c>
+      <c r="D99">
+        <v>0.02560146933109702</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0006360147336247976</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003498279600541815</v>
+      </c>
+      <c r="C101">
+        <v>0.0479571539167297</v>
+      </c>
+      <c r="D101">
+        <v>-0.01039049129136939</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
